--- a/FitnessData/dynamic11/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic11/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>166.03</v>
+        <v>149.33</v>
       </c>
       <c r="B2" t="n">
-        <v>176.86</v>
+        <v>173.1</v>
       </c>
       <c r="C2" t="n">
-        <v>157.15</v>
+        <v>167.04</v>
       </c>
       <c r="D2" t="n">
-        <v>172.37</v>
+        <v>147.74</v>
       </c>
       <c r="E2" t="n">
-        <v>163.68</v>
+        <v>166.51</v>
       </c>
       <c r="F2" t="n">
-        <v>167</v>
+        <v>154.07</v>
       </c>
       <c r="G2" t="n">
-        <v>163.95</v>
+        <v>159.15</v>
       </c>
       <c r="H2" t="n">
-        <v>171.66</v>
+        <v>170.03</v>
       </c>
       <c r="I2" t="n">
-        <v>172.67</v>
+        <v>157.01</v>
       </c>
       <c r="J2" t="n">
-        <v>160.61</v>
+        <v>154.29</v>
       </c>
       <c r="K2" t="n">
-        <v>164.46</v>
+        <v>148.32</v>
       </c>
       <c r="L2" t="n">
-        <v>175.5</v>
+        <v>166.12</v>
       </c>
       <c r="M2" t="n">
-        <v>175.19</v>
+        <v>173.96</v>
       </c>
       <c r="N2" t="n">
-        <v>170.44</v>
+        <v>154.97</v>
       </c>
       <c r="O2" t="n">
-        <v>186</v>
+        <v>164.07</v>
       </c>
       <c r="P2" t="n">
-        <v>168.14</v>
+        <v>164.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>164.16</v>
+        <v>161.67</v>
       </c>
       <c r="R2" t="n">
-        <v>170.92</v>
+        <v>161.96</v>
       </c>
       <c r="S2" t="n">
-        <v>174.34</v>
+        <v>170.38</v>
       </c>
       <c r="T2" t="n">
-        <v>170.97</v>
+        <v>149.48</v>
       </c>
       <c r="U2" t="n">
-        <v>157.15</v>
+        <v>147.74</v>
       </c>
       <c r="V2" t="n">
-        <v>169.605</v>
+        <v>160.6645</v>
       </c>
       <c r="W2" t="n">
-        <v>6.554629942583373</v>
+        <v>8.427108809949996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>318.38</v>
+        <v>326.52</v>
       </c>
       <c r="B3" t="n">
-        <v>367.82</v>
+        <v>358.5</v>
       </c>
       <c r="C3" t="n">
-        <v>309.9</v>
+        <v>349.88</v>
       </c>
       <c r="D3" t="n">
-        <v>336.28</v>
+        <v>320.72</v>
       </c>
       <c r="E3" t="n">
-        <v>333</v>
+        <v>326.26</v>
       </c>
       <c r="F3" t="n">
-        <v>360.64</v>
+        <v>310.6</v>
       </c>
       <c r="G3" t="n">
-        <v>328.86</v>
+        <v>351.58</v>
       </c>
       <c r="H3" t="n">
-        <v>353.76</v>
+        <v>321.9</v>
       </c>
       <c r="I3" t="n">
-        <v>367.42</v>
+        <v>331.12</v>
       </c>
       <c r="J3" t="n">
-        <v>343.44</v>
+        <v>313.42</v>
       </c>
       <c r="K3" t="n">
-        <v>359.32</v>
+        <v>333.88</v>
       </c>
       <c r="L3" t="n">
-        <v>345.5</v>
+        <v>354.06</v>
       </c>
       <c r="M3" t="n">
-        <v>360.56</v>
+        <v>363.6</v>
       </c>
       <c r="N3" t="n">
-        <v>340.64</v>
+        <v>304.22</v>
       </c>
       <c r="O3" t="n">
-        <v>334.82</v>
+        <v>316.84</v>
       </c>
       <c r="P3" t="n">
-        <v>362.96</v>
+        <v>328.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>335.58</v>
+        <v>345.48</v>
       </c>
       <c r="R3" t="n">
-        <v>347.68</v>
+        <v>335.5</v>
       </c>
       <c r="S3" t="n">
-        <v>345.42</v>
+        <v>334.48</v>
       </c>
       <c r="T3" t="n">
-        <v>327.94</v>
+        <v>316.48</v>
       </c>
       <c r="U3" t="n">
-        <v>309.9</v>
+        <v>304.22</v>
       </c>
       <c r="V3" t="n">
-        <v>343.996</v>
+        <v>332.194</v>
       </c>
       <c r="W3" t="n">
-        <v>16.26745229624253</v>
+        <v>16.92398497306178</v>
       </c>
     </row>
   </sheetData>
